--- a/biology/Médecine/Clémastine/Clémastine.xlsx
+++ b/biology/Médecine/Clémastine/Clémastine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9mastine</t>
+          <t>Clémastine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clémastine est un médicament de type antihistaminique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9mastine</t>
+          <t>Clémastine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme antihistaminique, elle est utilisée dans le traitement des allergies.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cl%C3%A9mastine</t>
+          <t>Clémastine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Pistes de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle favorise la différenciation des oligodendrocytes et la remyélinisation des axones[1] ce qui pourrait constituer un intérêt dans le traitement de la sclérose en plaques[2]. Les premiers tests dans cette maladie semblent prometteurs[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle favorise la différenciation des oligodendrocytes et la remyélinisation des axones ce qui pourrait constituer un intérêt dans le traitement de la sclérose en plaques. Les premiers tests dans cette maladie semblent prometteurs.
 </t>
         </is>
       </c>
